--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Participant Num</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>At the start was searching recipe instead of ading recipe and found hard to add new recipe. Struggled finding areas on the recipe add. They liked the import feature but generally didn't like the app it was clumsy and unattractive</t>
+  </si>
+  <si>
+    <t>Liked the contribution and clone idea. Thought the final recipe screen was very pretty and liked the app overall. Liked that you could stop the screen sleeping</t>
+  </si>
+  <si>
+    <t>Liked the app but found it was quite plain and felt like she typed a lot</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC8"/>
+  <dimension ref="A3:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,6 +877,97 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>85</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:N3"/>

--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Participant Num</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Liked the app but found it was quite plain and felt like she typed a lot</t>
+  </si>
+  <si>
+    <t>Overall liked the app. Thought cloning was a good idea. Was nothing they didn't like or would add</t>
+  </si>
+  <si>
+    <t>Liked the import feature and the app  was fine</t>
   </si>
 </sst>
 </file>
@@ -479,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +973,81 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>82.5</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>87.5</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Participant Num</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Liked the import feature and the app  was fine</t>
+  </si>
+  <si>
+    <t>It was ok but it felt a bit plain</t>
+  </si>
+  <si>
+    <t>More plain , need someone to teach and not as much help in knowing what do</t>
+  </si>
+  <si>
+    <t>It was colourful, simple to do and easy to understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liked the shelf feature how it looked like cookbooks on your shelf. Collaboration and clone good. Liked the colour and was good for sharing </t>
   </si>
 </sst>
 </file>
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC10"/>
+  <dimension ref="A3:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,6 +1061,172 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>82.5</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <v>57.5</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>27.5</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:N3"/>

--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Participant Num</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t xml:space="preserve">Liked the shelf feature how it looked like cookbooks on your shelf. Collaboration and clone good. Liked the colour and was good for sharing </t>
+  </si>
+  <si>
+    <t>Found it had a better recipe view, nice sharing features and just overall liked the app style</t>
+  </si>
+  <si>
+    <t>It was ok. But had issue adding recipe in the app, it wouldn't show until refresehed a few times. Like that you import the recipe but didn’t like the amount of writing needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC12"/>
+  <dimension ref="A3:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,8 +926,8 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>37</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1224,6 +1233,89 @@
         <v>32</v>
       </c>
       <c r="AC12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>90</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Participant Num</t>
   </si>
@@ -140,7 +140,16 @@
     <t>It was ok. But had issue adding recipe in the app, it wouldn't show until refresehed a few times. Like that you import the recipe but didn’t like the amount of writing needed</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Good collaboration features and like the idea of clone. Felt like you would only need to learn once and know how to use it</t>
+  </si>
+  <si>
+    <t>Import feature was good and liked the app</t>
+  </si>
+  <si>
+    <t>Recipes For Life. But found it a close call because they felt RecetteTek was easier but mainly because they had learnt what to do from the first one.</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AC13"/>
+  <dimension ref="A3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,6 +702,7 @@
         <v>1</v>
       </c>
       <c r="M6">
+        <f>( (C6 - 1) + (E6 - 1) + (G6 - 1) + (I6-1) + (K6-1)  + (5 -D6) + (5 - F6) + (5 - H6) + (5 - J6) + (5-L6))*2.5</f>
         <v>80</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -729,6 +739,7 @@
         <v>3</v>
       </c>
       <c r="Z6">
+        <f>( (P6 - 1) + (R6 - 1) + (T6 - 1) + (V6-1) + (X6-1)  + (5 -Q6) + (5 - S6) + (5 - U6) + (5 - W6) + (5-Y6))*2.5</f>
         <v>30</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -776,6 +787,7 @@
         <v>1</v>
       </c>
       <c r="M7">
+        <f>( (C7 - 1) + (E7 - 1) + (G7 - 1) + (I7-1) + (K7-1)  + (5 -D7) + (5 - F7) + (5 - H7) + (5 - J7) + (5-L7))*2.5</f>
         <v>82.5</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -812,7 +824,8 @@
         <v>2</v>
       </c>
       <c r="Z7">
-        <v>25</v>
+        <f>( (P7 - 1) + (R7 - 1) + (T7 - 1) + (V7-1) + (X7-1)  + (5 -Q7) + (5 - S7) + (5 - U7) + (5 - W7) + (5-Y7))*2.5</f>
+        <v>32.5</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>23</v>
@@ -859,7 +872,8 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <f>( (C8 - 1) + (E8 - 1) + (G8 - 1) + (I8-1) + (K8-1)  + (5 -D8) + (5 - F8) + (5 - H8) + (5 - J8) + (5-L8))*2.5</f>
+        <v>92.5</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>25</v>
@@ -895,6 +909,7 @@
         <v>4</v>
       </c>
       <c r="Z8">
+        <f>( (P8 - 1) + (R8 - 1) + (T8 - 1) + (V8-1) + (X8-1)  + (5 -Q8) + (5 - S8) + (5 - U8) + (5 - W8) + (5-Y8))*2.5</f>
         <v>25</v>
       </c>
       <c r="AA8" s="2" t="s">
@@ -926,8 +941,8 @@
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -942,6 +957,7 @@
         <v>1</v>
       </c>
       <c r="M9">
+        <f>( (C9 - 1) + (E9 - 1) + (G9 - 1) + (I9-1) + (K9-1)  + (5 -D9) + (5 - F9) + (5 - H9) + (5 - J9) + (5-L9))*2.5</f>
         <v>100</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -978,6 +994,7 @@
         <v>1</v>
       </c>
       <c r="Z9">
+        <f>( (P9 - 1) + (R9 - 1) + (T9 - 1) + (V9-1) + (X9-1)  + (5 -Q9) + (5 - S9) + (5 - U9) + (5 - W9) + (5-Y9))*2.5</f>
         <v>85</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -1025,6 +1042,7 @@
         <v>1</v>
       </c>
       <c r="M10">
+        <f>( (C10 - 1) + (E10 - 1) + (G10 - 1) + (I10-1) + (K10-1)  + (5 -D10) + (5 - F10) + (5 - H10) + (5 - J10) + (5-L10))*2.5</f>
         <v>82.5</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1061,6 +1079,7 @@
         <v>1</v>
       </c>
       <c r="Z10">
+        <f>( (P10 - 1) + (R10 - 1) + (T10 - 1) + (V10-1) + (X10-1)  + (5 -Q10) + (5 - S10) + (5 - U10) + (5 - W10) + (5-Y10))*2.5</f>
         <v>87.5</v>
       </c>
       <c r="AA10" s="2" t="s">
@@ -1108,6 +1127,7 @@
         <v>2</v>
       </c>
       <c r="M11">
+        <f>( (C11 - 1) + (E11 - 1) + (G11 - 1) + (I11-1) + (K11-1)  + (5 -D11) + (5 - F11) + (5 - H11) + (5 - J11) + (5-L11))*2.5</f>
         <v>82.5</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1144,6 +1164,7 @@
         <v>2</v>
       </c>
       <c r="Z11">
+        <f>( (P11 - 1) + (R11 - 1) + (T11 - 1) + (V11-1) + (X11-1)  + (5 -Q11) + (5 - S11) + (5 - U11) + (5 - W11) + (5-Y11))*2.5</f>
         <v>57.5</v>
       </c>
       <c r="AA11" s="2" t="s">
@@ -1191,6 +1212,7 @@
         <v>2</v>
       </c>
       <c r="M12">
+        <f>( (C12 - 1) + (E12 - 1) + (G12 - 1) + (I12-1) + (K12-1)  + (5 -D12) + (5 - F12) + (5 - H12) + (5 - J12) + (5-L12))*2.5</f>
         <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1227,6 +1249,7 @@
         <v>5</v>
       </c>
       <c r="Z12">
+        <f>( (P12 - 1) + (R12 - 1) + (T12 - 1) + (V12-1) + (X12-1)  + (5 -Q12) + (5 - S12) + (5 - U12) + (5 - W12) + (5-Y12))*2.5</f>
         <v>27.5</v>
       </c>
       <c r="AA12" s="2" t="s">
@@ -1274,6 +1297,7 @@
         <v>1</v>
       </c>
       <c r="M13">
+        <f>( (C13 - 1) + (E13 - 1) + (G13 - 1) + (I13-1) + (K13-1)  + (5 -D13) + (5 - F13) + (5 - H13) + (5 - J13) + (5-L13))*2.5</f>
         <v>90</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1310,6 +1334,7 @@
         <v>3</v>
       </c>
       <c r="Z13">
+        <f>( (P13 - 1) + (R13 - 1) + (T13 - 1) + (V13-1) + (X13-1)  + (5 -Q13) + (5 - S13) + (5 - U13) + (5 - W13) + (5-Y13))*2.5</f>
         <v>40</v>
       </c>
       <c r="AA13" s="2" t="s">
@@ -1317,6 +1342,112 @@
       </c>
       <c r="AC13" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f>( (C14 - 1) + (E14 - 1) + (G14 - 1) + (I14-1) + (K14-1)  + (5 -D14) + (5 - F14) + (5 - H14) + (5 - J14) + (5-L14))*2.5</f>
+        <v>72.5</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <f>( (P14 - 1) + (R14 - 1) + (T14 - 1) + (V14-1) + (X14-1)  + (5 -Q14) + (5 - S14) + (5 - U14) + (5 - W14) + (5-Y14))*2.5</f>
+        <v>87.5</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <f>SUM(M6:M14)  / 9</f>
+        <v>85.277777777777771</v>
+      </c>
+      <c r="Z17">
+        <f>SUM(Z6:Z14)/9</f>
+        <v>52.5</v>
       </c>
     </row>
   </sheetData>
@@ -1325,5 +1456,6 @@
     <mergeCell ref="P3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Participant Num</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>It was mostly straightfoward to use</t>
+  </si>
+  <si>
+    <t>Recipes For Life cause you could do more. The first one was slightly easier to use</t>
   </si>
 </sst>
 </file>
@@ -515,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <f>( (C6 - 1) + (E6 - 1) + (G6 - 1) + (I6-1) + (K6-1)  + (5 -D6) + (5 - F6) + (5 - H6) + (5 - J6) + (5-L6))*2.5</f>
+        <f t="shared" ref="M6:M15" si="0">( (C6 - 1) + (E6 - 1) + (G6 - 1) + (I6-1) + (K6-1)  + (5 -D6) + (5 - F6) + (5 - H6) + (5 - J6) + (5-L6))*2.5</f>
         <v>80</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -739,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="Z6">
-        <f>( (P6 - 1) + (R6 - 1) + (T6 - 1) + (V6-1) + (X6-1)  + (5 -Q6) + (5 - S6) + (5 - U6) + (5 - W6) + (5-Y6))*2.5</f>
+        <f t="shared" ref="Z6:Z15" si="1">( (P6 - 1) + (R6 - 1) + (T6 - 1) + (V6-1) + (X6-1)  + (5 -Q6) + (5 - S6) + (5 - U6) + (5 - W6) + (5-Y6))*2.5</f>
         <v>30</v>
       </c>
       <c r="AA6" s="2" t="s">
@@ -787,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <f>( (C7 - 1) + (E7 - 1) + (G7 - 1) + (I7-1) + (K7-1)  + (5 -D7) + (5 - F7) + (5 - H7) + (5 - J7) + (5-L7))*2.5</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -824,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="Z7">
-        <f>( (P7 - 1) + (R7 - 1) + (T7 - 1) + (V7-1) + (X7-1)  + (5 -Q7) + (5 - S7) + (5 - U7) + (5 - W7) + (5-Y7))*2.5</f>
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
       <c r="AA7" s="2" t="s">
@@ -872,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="M8">
-        <f>( (C8 - 1) + (E8 - 1) + (G8 - 1) + (I8-1) + (K8-1)  + (5 -D8) + (5 - F8) + (5 - H8) + (5 - J8) + (5-L8))*2.5</f>
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -909,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="Z8">
-        <f>( (P8 - 1) + (R8 - 1) + (T8 - 1) + (V8-1) + (X8-1)  + (5 -Q8) + (5 - S8) + (5 - U8) + (5 - W8) + (5-Y8))*2.5</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AA8" s="2" t="s">
@@ -957,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <f>( (C9 - 1) + (E9 - 1) + (G9 - 1) + (I9-1) + (K9-1)  + (5 -D9) + (5 - F9) + (5 - H9) + (5 - J9) + (5-L9))*2.5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -994,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <f>( (P9 - 1) + (R9 - 1) + (T9 - 1) + (V9-1) + (X9-1)  + (5 -Q9) + (5 - S9) + (5 - U9) + (5 - W9) + (5-Y9))*2.5</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="AA9" s="2" t="s">
@@ -1042,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <f>( (C10 - 1) + (E10 - 1) + (G10 - 1) + (I10-1) + (K10-1)  + (5 -D10) + (5 - F10) + (5 - H10) + (5 - J10) + (5-L10))*2.5</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1079,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <f>( (P10 - 1) + (R10 - 1) + (T10 - 1) + (V10-1) + (X10-1)  + (5 -Q10) + (5 - S10) + (5 - U10) + (5 - W10) + (5-Y10))*2.5</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="AA10" s="2" t="s">
@@ -1127,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <f>( (C11 - 1) + (E11 - 1) + (G11 - 1) + (I11-1) + (K11-1)  + (5 -D11) + (5 - F11) + (5 - H11) + (5 - J11) + (5-L11))*2.5</f>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1164,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="Z11">
-        <f>( (P11 - 1) + (R11 - 1) + (T11 - 1) + (V11-1) + (X11-1)  + (5 -Q11) + (5 - S11) + (5 - U11) + (5 - W11) + (5-Y11))*2.5</f>
+        <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
       <c r="AA11" s="2" t="s">
@@ -1212,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <f>( (C12 - 1) + (E12 - 1) + (G12 - 1) + (I12-1) + (K12-1)  + (5 -D12) + (5 - F12) + (5 - H12) + (5 - J12) + (5-L12))*2.5</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1249,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="Z12">
-        <f>( (P12 - 1) + (R12 - 1) + (T12 - 1) + (V12-1) + (X12-1)  + (5 -Q12) + (5 - S12) + (5 - U12) + (5 - W12) + (5-Y12))*2.5</f>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="AA12" s="2" t="s">
@@ -1297,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <f>( (C13 - 1) + (E13 - 1) + (G13 - 1) + (I13-1) + (K13-1)  + (5 -D13) + (5 - F13) + (5 - H13) + (5 - J13) + (5-L13))*2.5</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1334,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="Z13">
-        <f>( (P13 - 1) + (R13 - 1) + (T13 - 1) + (V13-1) + (X13-1)  + (5 -Q13) + (5 - S13) + (5 - U13) + (5 - W13) + (5-Y13))*2.5</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AA13" s="2" t="s">
@@ -1382,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <f>( (C14 - 1) + (E14 - 1) + (G14 - 1) + (I14-1) + (K14-1)  + (5 -D14) + (5 - F14) + (5 - H14) + (5 - J14) + (5-L14))*2.5</f>
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1419,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="Z14">
-        <f>( (P14 - 1) + (R14 - 1) + (T14 - 1) + (V14-1) + (X14-1)  + (5 -Q14) + (5 - S14) + (5 - U14) + (5 - W14) + (5-Y14))*2.5</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="AA14" s="2" t="s">
@@ -1429,12 +1435,86 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
@@ -1442,11 +1522,11 @@
         <v>40</v>
       </c>
       <c r="M17">
-        <f>SUM(M6:M14)  / 9</f>
-        <v>85.277777777777771</v>
+        <f>SUM(M6:M15)  / 10</f>
+        <v>83.25</v>
       </c>
       <c r="Z17">
-        <f>SUM(Z6:Z14)/9</f>
+        <f>SUM(Z6:Z15)/10</f>
         <v>52.5</v>
       </c>
     </row>

--- a/Studies/Evaluation/Evalresults.xlsx
+++ b/Studies/Evaluation/Evalresults.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="P12" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,11 +1521,11 @@
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <f>SUM(M6:M15)  / 10</f>
         <v>83.25</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="3">
         <f>SUM(Z6:Z15)/10</f>
         <v>52.5</v>
       </c>
